--- a/documentation/SkillsDatabase.xlsx
+++ b/documentation/SkillsDatabase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE12BC7-4D95-466E-B5D0-6E05531A0DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2677C95A-2FD8-4058-86BD-497DB5BB320B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>CoolDown</t>
+  </si>
+  <si>
+    <t>FieryFlicker</t>
   </si>
 </sst>
 </file>
@@ -417,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,6 +487,23 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documentation/SkillsDatabase.xlsx
+++ b/documentation/SkillsDatabase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2677C95A-2FD8-4058-86BD-497DB5BB320B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082813AF-8E07-4457-8F78-867B7EFAE08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -52,6 +52,27 @@
   </si>
   <si>
     <t>FieryFlicker</t>
+  </si>
+  <si>
+    <t>DoubleDelta</t>
+  </si>
+  <si>
+    <t>RockyRumble</t>
+  </si>
+  <si>
+    <t>ThornyThrust</t>
+  </si>
+  <si>
+    <t>ChargedContact</t>
+  </si>
+  <si>
+    <t>GulibleGust</t>
+  </si>
+  <si>
+    <t>LuminousLash</t>
+  </si>
+  <si>
+    <t>ShadowSlice</t>
   </si>
 </sst>
 </file>
@@ -420,16 +441,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="2"/>
     <col min="5" max="5" width="10.140625" style="2" bestFit="1" customWidth="1"/>
@@ -504,6 +525,125 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="3">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3">
+        <v>5</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documentation/SkillsDatabase.xlsx
+++ b/documentation/SkillsDatabase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082813AF-8E07-4457-8F78-867B7EFAE08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F87B659-EAF5-40FA-962E-91F4A10B758A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>ShadowSlice</t>
+  </si>
+  <si>
+    <t>CureI</t>
+  </si>
+  <si>
+    <t>StatusSkill</t>
   </si>
 </sst>
 </file>
@@ -441,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,6 +650,23 @@
         <v>2</v>
       </c>
     </row>
+    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="3">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documentation/SkillsDatabase.xlsx
+++ b/documentation/SkillsDatabase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F87B659-EAF5-40FA-962E-91F4A10B758A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5B132F-C8B4-4C43-93DA-2DACCA7D738F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -79,13 +79,19 @@
   </si>
   <si>
     <t>StatusSkill</t>
+  </si>
+  <si>
+    <t>EmergencySupplies</t>
+  </si>
+  <si>
+    <t>PassiveSkill</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +116,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -153,7 +167,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -162,6 +176,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -447,23 +464,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="2"/>
     <col min="5" max="5" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,7 +497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -497,7 +514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -514,7 +531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -531,7 +548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -548,7 +565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -565,7 +582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -582,7 +599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -599,7 +616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -616,7 +633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -633,7 +650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -650,7 +667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -666,8 +683,32 @@
       <c r="E12" s="3">
         <v>3</v>
       </c>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documentation/SkillsDatabase.xlsx
+++ b/documentation/SkillsDatabase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5B132F-C8B4-4C43-93DA-2DACCA7D738F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED7188D-1D09-4015-B38B-4A9110D700C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>PassiveSkill</t>
+  </si>
+  <si>
+    <t>ScaleOneself</t>
   </si>
 </sst>
 </file>
@@ -467,7 +470,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,9 +705,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="3">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/SkillsDatabase.xlsx
+++ b/documentation/SkillsDatabase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED7188D-1D09-4015-B38B-4A9110D700C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499DF77F-505E-4540-AA04-FF4064782593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -88,13 +88,16 @@
   </si>
   <si>
     <t>ScaleOneself</t>
+  </si>
+  <si>
+    <t>LimiterRemoval</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +130,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -170,7 +181,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -182,6 +193,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -467,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,6 +736,26 @@
         <v>3</v>
       </c>
     </row>
+    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="3">
+        <v>12</v>
+      </c>
+      <c r="E15" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentation/SkillsDatabase.xlsx
+++ b/documentation/SkillsDatabase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499DF77F-505E-4540-AA04-FF4064782593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192B0D6B-64CF-4433-B0EC-DEF622B054BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -91,13 +91,16 @@
   </si>
   <si>
     <t>LimiterRemoval</t>
+  </si>
+  <si>
+    <t>ForceOfHabit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,14 +133,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -181,7 +176,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -193,9 +188,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -484,7 +476,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,8 +745,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="5"/>
+    <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documentation/SkillsDatabase.xlsx
+++ b/documentation/SkillsDatabase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192B0D6B-64CF-4433-B0EC-DEF622B054BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A238283-36B5-43EA-85E3-45D08E3FD1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>ForceOfHabit</t>
+  </si>
+  <si>
+    <t>OpressTheWeak</t>
+  </si>
+  <si>
+    <t>DamageSkill(has effect)</t>
   </si>
 </sst>
 </file>
@@ -473,17 +479,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="2"/>
     <col min="5" max="5" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
@@ -762,6 +768,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="17" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="3">
+        <v>20</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentation/SkillsDatabase.xlsx
+++ b/documentation/SkillsDatabase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A238283-36B5-43EA-85E3-45D08E3FD1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4D9200-7ADA-4817-B302-079738CC2E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>DamageSkill(has effect)</t>
+  </si>
+  <si>
+    <t>TrueVision</t>
   </si>
 </sst>
 </file>
@@ -479,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,6 +788,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="3">
+        <v>13</v>
+      </c>
+      <c r="E18" s="3">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentation/SkillsDatabase.xlsx
+++ b/documentation/SkillsDatabase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4D9200-7ADA-4817-B302-079738CC2E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E829EACF-24BF-4A1D-BF6B-6E7D6A966322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>TrueVision</t>
+  </si>
+  <si>
+    <t>WillfullIgnorance</t>
   </si>
 </sst>
 </file>
@@ -482,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,6 +808,23 @@
         <v>7</v>
       </c>
     </row>
+    <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="3">
+        <v>15</v>
+      </c>
+      <c r="E19" s="3">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentation/SkillsDatabase.xlsx
+++ b/documentation/SkillsDatabase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E829EACF-24BF-4A1D-BF6B-6E7D6A966322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04FF0181-6F01-4DDA-9CDC-C638B1E78F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>WillfullIgnorance</t>
+  </si>
+  <si>
+    <t>NaturalLens</t>
   </si>
 </sst>
 </file>
@@ -485,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,6 +828,23 @@
         <v>4</v>
       </c>
     </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentation/SkillsDatabase.xlsx
+++ b/documentation/SkillsDatabase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04FF0181-6F01-4DDA-9CDC-C638B1E78F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978A94D1-F64F-4527-9E39-A8DB0B678A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>NaturalLens</t>
+  </si>
+  <si>
+    <t>EfficientCasting</t>
+  </si>
+  <si>
+    <t>PoisonMaw</t>
   </si>
 </sst>
 </file>
@@ -488,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,21 +834,55 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0</v>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="3">
+        <v>10</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/SkillsDatabase.xlsx
+++ b/documentation/SkillsDatabase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978A94D1-F64F-4527-9E39-A8DB0B678A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6AC1A5-41A5-4725-8A53-75BEAEAA5C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>PoisonMaw</t>
+  </si>
+  <si>
+    <t>SlowAntibodies</t>
   </si>
 </sst>
 </file>
@@ -494,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,6 +888,23 @@
         <v>3</v>
       </c>
     </row>
+    <row r="23" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentation/SkillsDatabase.xlsx
+++ b/documentation/SkillsDatabase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6AC1A5-41A5-4725-8A53-75BEAEAA5C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80FAF42-D943-4036-AA8B-C6525BAA7FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>ID</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>SlowAntibodies</t>
+  </si>
+  <si>
+    <t>LimiterOverload</t>
   </si>
 </sst>
 </file>
@@ -497,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,6 +908,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="24" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="3">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentation/SkillsDatabase.xlsx
+++ b/documentation/SkillsDatabase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80FAF42-D943-4036-AA8B-C6525BAA7FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F2D6EF-783A-4F00-9B9F-9C415F9DB8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>LimiterOverload</t>
+  </si>
+  <si>
+    <t>DimensionalBarrier</t>
   </si>
 </sst>
 </file>
@@ -500,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,6 +928,23 @@
         <v>3</v>
       </c>
     </row>
+    <row r="25" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="3">
+        <v>12</v>
+      </c>
+      <c r="E25" s="3">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentation/SkillsDatabase.xlsx
+++ b/documentation/SkillsDatabase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F2D6EF-783A-4F00-9B9F-9C415F9DB8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7BF284-67FC-4686-873A-91922DB8F11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>DimensionalBarrier</t>
+  </si>
+  <si>
+    <t>InstinctiveEvasion</t>
+  </si>
+  <si>
+    <t>MarkingDodge</t>
   </si>
 </sst>
 </file>
@@ -503,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,6 +951,40 @@
         <v>7</v>
       </c>
     </row>
+    <row r="26" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentation/SkillsDatabase.xlsx
+++ b/documentation/SkillsDatabase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7BF284-67FC-4686-873A-91922DB8F11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F155371-6917-49C5-8BB6-29FB4E2AC59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
   <si>
     <t>ID</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>MarkingDodge</t>
+  </si>
+  <si>
+    <t>CounterMagic</t>
   </si>
 </sst>
 </file>
@@ -509,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,6 +988,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentation/SkillsDatabase.xlsx
+++ b/documentation/SkillsDatabase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F155371-6917-49C5-8BB6-29FB4E2AC59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5780A28E-3FF9-4C30-9E7C-84F5DEE09097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>CounterMagic</t>
+  </si>
+  <si>
+    <t>WindsOverTheIceBarrier</t>
+  </si>
+  <si>
+    <t>AGlacialHeart</t>
   </si>
 </sst>
 </file>
@@ -512,16 +518,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+      <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="2"/>
     <col min="5" max="5" width="10.140625" style="2" bestFit="1" customWidth="1"/>
@@ -1005,6 +1011,40 @@
         <v>0</v>
       </c>
     </row>
+    <row r="29" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="3">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentation/SkillsDatabase.xlsx
+++ b/documentation/SkillsDatabase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5780A28E-3FF9-4C30-9E7C-84F5DEE09097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F922FD51-1529-4E14-BACF-431F6494A274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
   <si>
     <t>ID</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>AGlacialHeart</t>
+  </si>
+  <si>
+    <t>BackupStrike</t>
   </si>
 </sst>
 </file>
@@ -518,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD30"/>
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,6 +1048,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="31" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="3">
+        <v>5</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentation/SkillsDatabase.xlsx
+++ b/documentation/SkillsDatabase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F922FD51-1529-4E14-BACF-431F6494A274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DBF7E3-CE77-4DE8-9EC3-36DD8BDD1FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>BackupStrike</t>
+  </si>
+  <si>
+    <t>Counting</t>
   </si>
 </sst>
 </file>
@@ -521,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,6 +1068,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="32" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentation/SkillsDatabase.xlsx
+++ b/documentation/SkillsDatabase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DBF7E3-CE77-4DE8-9EC3-36DD8BDD1FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B320DC5-3A88-4EA2-98B7-AD8399DB4E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -145,6 +145,21 @@
   </si>
   <si>
     <t>Counting</t>
+  </si>
+  <si>
+    <t>SwordAtack</t>
+  </si>
+  <si>
+    <t>BasicAtack</t>
+  </si>
+  <si>
+    <t>EquipSwordAtack</t>
+  </si>
+  <si>
+    <t>BluntStrike</t>
+  </si>
+  <si>
+    <t>BluntAttack</t>
   </si>
 </sst>
 </file>
@@ -524,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,6 +1100,77 @@
         <v>0</v>
       </c>
     </row>
+    <row r="33" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentation/SkillsDatabase.xlsx
+++ b/documentation/SkillsDatabase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B320DC5-3A88-4EA2-98B7-AD8399DB4E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E189E7-0E48-4677-83DB-FF1310DFDB75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
   <si>
     <t>ID</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>BluntAttack</t>
+  </si>
+  <si>
+    <t>SupplySquad</t>
   </si>
 </sst>
 </file>
@@ -541,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1168,8 +1171,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
+    <row r="37" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documentation/SkillsDatabase.xlsx
+++ b/documentation/SkillsDatabase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E189E7-0E48-4677-83DB-FF1310DFDB75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8619533-BCB8-4720-BB17-D3A9467C9C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="68">
   <si>
     <t>ID</t>
   </si>
@@ -163,6 +163,72 @@
   </si>
   <si>
     <t>SupplySquad</t>
+  </si>
+  <si>
+    <t>BabyDragonRoar</t>
+  </si>
+  <si>
+    <t>PassiveSkill(Agumon)</t>
+  </si>
+  <si>
+    <t>PepperBreath</t>
+  </si>
+  <si>
+    <t>DamageSkill(Agumon)</t>
+  </si>
+  <si>
+    <t>KnucklePunch</t>
+  </si>
+  <si>
+    <t>DamageSkill(Monodramon)</t>
+  </si>
+  <si>
+    <t>Dragon'sGrumble</t>
+  </si>
+  <si>
+    <t>PassiveSkill(Veemon)</t>
+  </si>
+  <si>
+    <t>VeemonHeadButt</t>
+  </si>
+  <si>
+    <t>DamageSkill(Veemon)</t>
+  </si>
+  <si>
+    <t>RelentlessAgression</t>
+  </si>
+  <si>
+    <t>PassiveSkill(Guilmon)</t>
+  </si>
+  <si>
+    <t>FireBall</t>
+  </si>
+  <si>
+    <t>DamageSkill(Guilmon)</t>
+  </si>
+  <si>
+    <t>Keen</t>
+  </si>
+  <si>
+    <t>PassiveSkill(Dorumon)</t>
+  </si>
+  <si>
+    <t>MetalKannon</t>
+  </si>
+  <si>
+    <t>DamageSkill(Dorumon)</t>
+  </si>
+  <si>
+    <t>MysticScale</t>
+  </si>
+  <si>
+    <t>PassiveSkill(Betamon)</t>
+  </si>
+  <si>
+    <t>ElectricShock</t>
+  </si>
+  <si>
+    <t>DamageSkill(Betamon)</t>
   </si>
 </sst>
 </file>
@@ -542,17 +608,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="2"/>
     <col min="5" max="5" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
@@ -1188,6 +1254,193 @@
         <v>0</v>
       </c>
     </row>
+    <row r="38" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="3">
+        <v>5</v>
+      </c>
+      <c r="E39" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="3">
+        <v>5</v>
+      </c>
+      <c r="E40" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="3">
+        <v>5</v>
+      </c>
+      <c r="E42" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="3">
+        <v>5</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" s="3">
+        <v>5</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>45</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>46</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" s="3">
+        <v>5</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentation/SkillsDatabase.xlsx
+++ b/documentation/SkillsDatabase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8619533-BCB8-4720-BB17-D3A9467C9C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6554E0D-27DE-4100-B117-C77B665C2432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="70">
   <si>
     <t>ID</t>
   </si>
@@ -229,6 +229,12 @@
   </si>
   <si>
     <t>DamageSkill(Betamon)</t>
+  </si>
+  <si>
+    <t>AvengerPact</t>
+  </si>
+  <si>
+    <t>PassiveSkill(Monodramon)</t>
   </si>
 </sst>
 </file>
@@ -608,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:XFD48"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1441,6 +1447,23 @@
         <v>2</v>
       </c>
     </row>
+    <row r="49" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>47</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentation/SkillsDatabase.xlsx
+++ b/documentation/SkillsDatabase.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6554E0D-27DE-4100-B117-C77B665C2432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65182BA-78A2-4116-ABDC-48EC119D080E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="74">
   <si>
     <t>ID</t>
   </si>
@@ -235,6 +235,18 @@
   </si>
   <si>
     <t>PassiveSkill(Monodramon)</t>
+  </si>
+  <si>
+    <t>MegaFlare</t>
+  </si>
+  <si>
+    <t>DamageSkill(Greymon)</t>
+  </si>
+  <si>
+    <t>Dragon'sRoar</t>
+  </si>
+  <si>
+    <t>PassiveSkill(Greymon)</t>
   </si>
 </sst>
 </file>
@@ -614,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:XFD49"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1464,6 +1476,40 @@
         <v>0</v>
       </c>
     </row>
+    <row r="50" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>48</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="3">
+        <v>15</v>
+      </c>
+      <c r="E50" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>49</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentation/SkillsDatabase.xlsx
+++ b/documentation/SkillsDatabase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65182BA-78A2-4116-ABDC-48EC119D080E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E68319-6625-4079-8517-FBEBC2E856DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="86">
   <si>
     <t>ID</t>
   </si>
@@ -247,6 +247,42 @@
   </si>
   <si>
     <t>PassiveSkill(Greymon)</t>
+  </si>
+  <si>
+    <t>RevengeUnion</t>
+  </si>
+  <si>
+    <t>PassiveSkill(Strikedramon)</t>
+  </si>
+  <si>
+    <t>FangStrike</t>
+  </si>
+  <si>
+    <t>DamageSkill(Strikedramon)</t>
+  </si>
+  <si>
+    <t>DragonWrath</t>
+  </si>
+  <si>
+    <t>PassiveSkill(ExVeemon)</t>
+  </si>
+  <si>
+    <t>VeeLaser</t>
+  </si>
+  <si>
+    <t>DamageSkill(ExVeemon)</t>
+  </si>
+  <si>
+    <t>SharpenedEdge</t>
+  </si>
+  <si>
+    <t>PassiveSkill(Dorugamon)</t>
+  </si>
+  <si>
+    <t>PowerMetal</t>
+  </si>
+  <si>
+    <t>DamageSkill(Dorugamon)</t>
   </si>
 </sst>
 </file>
@@ -626,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD51"/>
+      <selection activeCell="A56" sqref="A56:XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1487,7 +1523,7 @@
         <v>71</v>
       </c>
       <c r="D50" s="3">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E50" s="3">
         <v>4</v>
@@ -1508,6 +1544,108 @@
       </c>
       <c r="E51" s="3">
         <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>50</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>51</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53" s="3">
+        <v>40</v>
+      </c>
+      <c r="E53" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>52</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>53</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" s="3">
+        <v>50</v>
+      </c>
+      <c r="E55" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>54</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>55</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D57" s="3">
+        <v>80</v>
+      </c>
+      <c r="E57" s="3">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/SkillsDatabase.xlsx
+++ b/documentation/SkillsDatabase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E68319-6625-4079-8517-FBEBC2E856DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8432398E-B259-49C5-9D17-563877959D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="95">
   <si>
     <t>ID</t>
   </si>
@@ -283,6 +283,33 @@
   </si>
   <si>
     <t>DamageSkill(Dorugamon)</t>
+  </si>
+  <si>
+    <t>PumpItUp</t>
+  </si>
+  <si>
+    <t>SavageInstinct</t>
+  </si>
+  <si>
+    <t>PassiveSkill(Growlmon)</t>
+  </si>
+  <si>
+    <t>ExhaustFlame</t>
+  </si>
+  <si>
+    <t>DamageSkill(Growlmon)</t>
+  </si>
+  <si>
+    <t>MagicScale</t>
+  </si>
+  <si>
+    <t>PassiveSkill(Seadramon)</t>
+  </si>
+  <si>
+    <t>IceBlast</t>
+  </si>
+  <si>
+    <t>DamageSkill(Seadramon)</t>
   </si>
 </sst>
 </file>
@@ -662,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:XFD57"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1648,6 +1675,91 @@
         <v>7</v>
       </c>
     </row>
+    <row r="58" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>56</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>57</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D59" s="3">
+        <v>60</v>
+      </c>
+      <c r="E59" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>58</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>59</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D61" s="3">
+        <v>55</v>
+      </c>
+      <c r="E61" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>64</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="3">
+        <v>10</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentation/SkillsDatabase.xlsx
+++ b/documentation/SkillsDatabase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8432398E-B259-49C5-9D17-563877959D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224869BF-86BA-48A0-8560-A1E0FBC4029F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="99">
   <si>
     <t>ID</t>
   </si>
@@ -310,6 +310,18 @@
   </si>
   <si>
     <t>DamageSkill(Seadramon)</t>
+  </si>
+  <si>
+    <t>NaturalSpirit</t>
+  </si>
+  <si>
+    <t>PassiveSkill(Wormmon)</t>
+  </si>
+  <si>
+    <t>StickyNet</t>
+  </si>
+  <si>
+    <t>DamageSkill(Wormmon)</t>
   </si>
 </sst>
 </file>
@@ -692,7 +704,7 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1743,6 +1755,40 @@
         <v>5</v>
       </c>
     </row>
+    <row r="62" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>60</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>61</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D63" s="3">
+        <v>5</v>
+      </c>
+      <c r="E63" s="3">
+        <v>3</v>
+      </c>
+    </row>
     <row r="66" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>64</v>

--- a/documentation/SkillsDatabase.xlsx
+++ b/documentation/SkillsDatabase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224869BF-86BA-48A0-8560-A1E0FBC4029F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC41576-3C5B-414D-A742-1FB97D758A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="103">
   <si>
     <t>ID</t>
   </si>
@@ -322,6 +322,18 @@
   </si>
   <si>
     <t>DamageSkill(Wormmon)</t>
+  </si>
+  <si>
+    <t>NaturalSpectrum</t>
+  </si>
+  <si>
+    <t>PassiveSkill(Stingmon)</t>
+  </si>
+  <si>
+    <t>SpikingStrike</t>
+  </si>
+  <si>
+    <t>DamageSkill(Stingmon)</t>
   </si>
 </sst>
 </file>
@@ -703,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1789,6 +1801,40 @@
         <v>3</v>
       </c>
     </row>
+    <row r="64" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>62</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>63</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D65" s="3">
+        <v>45</v>
+      </c>
+      <c r="E65" s="3">
+        <v>3</v>
+      </c>
+    </row>
     <row r="66" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>64</v>

--- a/documentation/SkillsDatabase.xlsx
+++ b/documentation/SkillsDatabase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC41576-3C5B-414D-A742-1FB97D758A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08738C4E-DD0F-4F81-B273-1CDE288E6A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="104">
   <si>
     <t>ID</t>
   </si>
@@ -334,13 +334,16 @@
   </si>
   <si>
     <t>DamageSkill(Stingmon)</t>
+  </si>
+  <si>
+    <t>SurvivalBaton</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,6 +376,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -416,7 +427,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -428,6 +439,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -713,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1852,6 +1866,26 @@
         <v>4</v>
       </c>
     </row>
+    <row r="67" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>65</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0</v>
+      </c>
+      <c r="E67" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentation/SkillsDatabase.xlsx
+++ b/documentation/SkillsDatabase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08738C4E-DD0F-4F81-B273-1CDE288E6A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF3A6EC-475F-47CE-894B-9730E9C82C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -729,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/documentation/SkillsDatabase.xlsx
+++ b/documentation/SkillsDatabase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF3A6EC-475F-47CE-894B-9730E9C82C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715A27B6-98DE-4FB2-99C9-F8C8F4A8B943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -729,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/documentation/SkillsDatabase.xlsx
+++ b/documentation/SkillsDatabase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715A27B6-98DE-4FB2-99C9-F8C8F4A8B943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E2788E-B28F-4797-8E0C-CAFE0E9D236E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="109">
   <si>
     <t>ID</t>
   </si>
@@ -337,6 +337,21 @@
   </si>
   <si>
     <t>SurvivalBaton</t>
+  </si>
+  <si>
+    <t>NewYearsEve</t>
+  </si>
+  <si>
+    <t>BackwaterCamp</t>
+  </si>
+  <si>
+    <t>PassiveSkill(Paildramon)</t>
+  </si>
+  <si>
+    <t>DeathParadeBlaster</t>
+  </si>
+  <si>
+    <t>DamageSkill(Paildramon)</t>
   </si>
 </sst>
 </file>
@@ -729,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1883,6 +1898,57 @@
         <v>0</v>
       </c>
     </row>
+    <row r="68" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>66</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="3">
+        <v>100</v>
+      </c>
+      <c r="E68" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>67</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>68</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D70" s="3">
+        <v>100</v>
+      </c>
+      <c r="E70" s="3">
+        <v>15</v>
+      </c>
+    </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B71" s="5"/>
     </row>

--- a/documentation/SkillsDatabase.xlsx
+++ b/documentation/SkillsDatabase.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheqs\Desktop\Hus 'n' Hus Game Studio\DRogue Lite\DRoque-Lite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E2788E-B28F-4797-8E0C-CAFE0E9D236E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86E2654-A57F-4868-95B4-E3B4888B3062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
